--- a/Spring Demo Project/sprintLinkedinDemoProject/target/test-classes/Exceldata/Data.xlsx
+++ b/Spring Demo Project/sprintLinkedinDemoProject/target/test-classes/Exceldata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHAGADE\Documents\Submmition Project\SprintLinkedInProject\Spring Demo Project\sprintLinkedinDemoProject\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD486D9-37F4-40C5-83CA-2E56210FDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828F2C9-FCC1-4493-92BF-3F4DC9558042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Aniket Shinde</t>
+  </si>
+  <si>
+    <t>invalidData</t>
+  </si>
+  <si>
+    <t>#Ab@</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="A10 B10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,10 +448,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{03F3F362-CD4F-4542-88E0-BEBC96ECD39F}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{D4EEDCA1-3E3E-4B74-A6B0-6F05D9F37459}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{9B4FBA26-1743-49E5-A3C2-1C83E288B092}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
